--- a/public/template-kas.xlsx
+++ b/public/template-kas.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\dev\projects\sdns-media-visual\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2527351-C58A-44A6-B294-03C1EB438786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E06EBC-AD4E-4EED-B7DC-AD7943377AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="3270" windowWidth="21600" windowHeight="11295" xr2:uid="{2DD51228-D6AA-4F4D-9A4D-CB6BF581F230}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2DD51228-D6AA-4F4D-9A4D-CB6BF581F230}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="REKAP" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Tanggal</t>
   </si>
@@ -53,6 +54,12 @@
   </si>
   <si>
     <t>LAPORAN KAS PERIODE</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Jumlah</t>
   </si>
 </sst>
 </file>
@@ -61,7 +68,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$Rp-421]#,##0"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -100,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -110,11 +117,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,19 +453,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF18990-C7A9-4157-B3D0-22679AE19EDB}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="91.42578125" customWidth="1"/>
-    <col min="4" max="5" width="19.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="91.44140625" customWidth="1"/>
+    <col min="4" max="5" width="19.109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -452,7 +474,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -473,4 +495,85 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4C233D-45E4-4065-BC35-72C16802473B}">
+  <dimension ref="A4:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" style="11" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="43.109375" customWidth="1"/>
+    <col min="5" max="6" width="14" style="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D5" s="10"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D6" s="10"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D7" s="10"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D8" s="10"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D9" s="10"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D10" s="10"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D13" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:C4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/public/template-kas.xlsx
+++ b/public/template-kas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\dev\projects\sdns-media-visual\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E06EBC-AD4E-4EED-B7DC-AD7943377AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F727019D-F487-4CA7-B0FC-C8CBD9EA5450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2DD51228-D6AA-4F4D-9A4D-CB6BF581F230}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2DD51228-D6AA-4F4D-9A4D-CB6BF581F230}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Tanggal</t>
   </si>
@@ -53,13 +53,25 @@
     <t>Kredit</t>
   </si>
   <si>
-    <t>LAPORAN KAS PERIODE</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Jumlah</t>
+  </si>
+  <si>
+    <t>D/K</t>
+  </si>
+  <si>
+    <t>PT. MEDIA VISUAL BANYUWANGI</t>
+  </si>
+  <si>
+    <t>LAPORAN KEUANGAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERIODE </t>
+  </si>
+  <si>
+    <t>PERIODE</t>
   </si>
 </sst>
 </file>
@@ -70,7 +82,7 @@
     <numFmt numFmtId="164" formatCode="[$Rp-421]#,##0"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +98,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -95,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -103,25 +123,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -133,10 +157,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -152,6 +201,116 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1851660</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{680543B7-2344-48AF-A3DA-9E99FDA6D5BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2522220" y="0"/>
+          <a:ext cx="1524000" cy="806154"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>11024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{641CEEC7-3BDF-4CB0-9D8C-E6368C6F4848}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1524000" cy="806154"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,129 +610,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF18990-C7A9-4157-B3D0-22679AE19EDB}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="91.44140625" customWidth="1"/>
-    <col min="4" max="5" width="19.109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E5" s="17" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4C233D-45E4-4065-BC35-72C16802473B}">
-  <dimension ref="A4:G13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="11" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="43.109375" customWidth="1"/>
-    <col min="5" max="6" width="14" style="16" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="6" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" customWidth="1"/>
+    <col min="5" max="5" width="5.21875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" style="11" customWidth="1"/>
+    <col min="7" max="8" width="14" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="8" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D5" s="10"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D6" s="10"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D7" s="10"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D8" s="10"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D9" s="10"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D10" s="10"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D13" s="9"/>
+      <c r="H6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D7" s="5"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D8" s="5"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="5"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D10" s="5"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D11" s="5"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D12" s="5"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D15" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:C4"/>
+  <mergeCells count="4">
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/template-kas.xlsx
+++ b/public/template-kas.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\dev\projects\sdns-media-visual\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F727019D-F487-4CA7-B0FC-C8CBD9EA5450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D559D40-74CF-4E89-949D-FFD634B1CBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2DD51228-D6AA-4F4D-9A4D-CB6BF581F230}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Buku Kas" sheetId="1" r:id="rId1"/>
     <sheet name="REKAP" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -179,10 +179,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -613,7 +613,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,31 +625,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
@@ -735,11 +735,11 @@
       <c r="H3" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="12" t="s">
         <v>2</v>
       </c>

--- a/public/template-kas.xlsx
+++ b/public/template-kas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\dev\projects\sdns-media-visual\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Alpine\home\dev\projects\sdns-media-visual\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D559D40-74CF-4E89-949D-FFD634B1CBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5131E7D8-8B40-4AED-8453-87528E325187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2DD51228-D6AA-4F4D-9A4D-CB6BF581F230}"/>
+    <workbookView xWindow="5670" yWindow="1995" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{2DD51228-D6AA-4F4D-9A4D-CB6BF581F230}"/>
   </bookViews>
   <sheets>
     <sheet name="Buku Kas" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -150,26 +150,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -182,7 +170,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -612,59 +600,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF18990-C7A9-4157-B3D0-22679AE19EDB}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="91.44140625" customWidth="1"/>
-    <col min="4" max="5" width="19.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="91.42578125" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -684,126 +672,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4C233D-45E4-4065-BC35-72C16802473B}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="6" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" customWidth="1"/>
-    <col min="5" max="5" width="5.21875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" style="11" customWidth="1"/>
-    <col min="7" max="8" width="14" style="9" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="5" customWidth="1"/>
+    <col min="2" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="5" customWidth="1"/>
+    <col min="7" max="8" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-    </row>
-    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="12" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D7" s="5"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D8" s="5"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D9" s="5"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D10" s="5"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D11" s="5"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D12" s="5"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D15" s="4"/>
     </row>
   </sheetData>
